--- a/K3_Multitool_Ad/K3_Ad_Shotlist.xlsx
+++ b/K3_Multitool_Ad/K3_Ad_Shotlist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hannl-my.sharepoint.com/personal/j_bakker17_student_han_nl/Documents/Projects - HAN/Bootcamp/businessweek/K3_Multitool_Ad/Storyboard_Shotlist/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hannl-my.sharepoint.com/personal/j_bakker17_student_han_nl/Documents/Projects - HAN/Bootcamp/businessweek/K3_Multitool_Ad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{4743F283-95AD-45F0-B5C9-ECDDCF77B09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5F47638-0AEA-452E-81B7-30AF04D3E578}"/>
+  <xr:revisionPtr revIDLastSave="241" documentId="8_{4743F283-95AD-45F0-B5C9-ECDDCF77B09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83572873-4510-4963-99A0-78370E6BE249}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{EEAB4AD8-15D7-4D74-8428-00FE51D3B849}"/>
+    <workbookView xWindow="24795" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{EEAB4AD8-15D7-4D74-8428-00FE51D3B849}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
   <si>
     <t>Location</t>
   </si>
   <si>
-    <t>Shot Number</t>
-  </si>
-  <si>
     <t>Plate</t>
   </si>
   <si>
@@ -62,82 +59,145 @@
     <t>Characters</t>
   </si>
   <si>
-    <t>Tv speelt serie</t>
-  </si>
-  <si>
-    <t>Vader en Dochter zitten op bank</t>
-  </si>
-  <si>
     <t>Wiebelende bank</t>
   </si>
   <si>
-    <t>Vader en Dochter vliegen naar voren</t>
-  </si>
-  <si>
-    <t>Vader en Dochter staan op, zoom uit, bank in een hoop hout en stof</t>
-  </si>
-  <si>
-    <t>Vader pakt normale hamer erbij</t>
-  </si>
-  <si>
-    <t>Vader timmert hoop hout met normale hamer, pan naar Dochter die huilt</t>
-  </si>
-  <si>
-    <t>Vader timmert hoop hout met K3 Multitool, pan naar Dochter die danst</t>
-  </si>
-  <si>
-    <t>Gereedschapskist gaat op in rook</t>
-  </si>
-  <si>
-    <t>Vader en Dochter lachen op de gerepareerde bank, Vader grijpt naast de bank</t>
-  </si>
-  <si>
-    <t>Vader neemt slok van bier, knipoogt naar camera</t>
-  </si>
-  <si>
-    <t>Vader zet één voor één 6 flesjes neer naast de bank</t>
-  </si>
-  <si>
-    <t>Vader in een Talking Head Interview</t>
-  </si>
-  <si>
-    <t>Dochter speelt met Multitool</t>
-  </si>
-  <si>
-    <t>Dochter vindt het zakmes op de Multitool</t>
-  </si>
-  <si>
-    <t>Vader en Dochter lopen door park</t>
-  </si>
-  <si>
-    <t>Vader onthuld meetlat uit Multitool</t>
-  </si>
-  <si>
-    <t>Vader hamert op lege grond, na een stofwolk onstaat een klimrek en juigt Dochter</t>
-  </si>
-  <si>
-    <t>Vader glimlacht en neemt een slok van zijn biertje</t>
-  </si>
-  <si>
-    <t>Omstander komt Vader en Dochter tegen</t>
-  </si>
-  <si>
-    <t>Vader onthuld zakmes uit de Multitool</t>
-  </si>
-  <si>
-    <t>Infomercial Host loopt scherm binnen</t>
-  </si>
-  <si>
-    <t>Infomercial Host juicht</t>
-  </si>
-  <si>
-    <t>Infomercial Host haalt Multitool scherm in</t>
-  </si>
-  <si>
-    <t>Infomercial Host staat met Vader en Dochter voor de Call To Action</t>
-  </si>
-  <si>
-    <t>K3 Ad - Storyboard Descriptions</t>
+    <t>Dialogue</t>
+  </si>
+  <si>
+    <t>TV Scherm met serie</t>
+  </si>
+  <si>
+    <t>Dochter, Vader</t>
+  </si>
+  <si>
+    <t>Beide karakters op de bank</t>
+  </si>
+  <si>
+    <t>Beide karakters staan op</t>
+  </si>
+  <si>
+    <t>Vader hamert hout, pan naar Dochter die TV kijkt</t>
+  </si>
+  <si>
+    <t>Host</t>
+  </si>
+  <si>
+    <t>H: "Geen zorgen! Er is een oplossing!"</t>
+  </si>
+  <si>
+    <t>H: "De K3 Multitool!"</t>
+  </si>
+  <si>
+    <t>Vader hamert met Multitool, Dochter juicht met de muziek mee</t>
+  </si>
+  <si>
+    <t>Close-up hamergebruik op plank hout</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Karakters reageren op ingestortte bank</t>
+  </si>
+  <si>
+    <t>Clean plate voor gereedschapskist</t>
+  </si>
+  <si>
+    <t>Host drukt op knop van Multitool</t>
+  </si>
+  <si>
+    <t>Beide karakters weer op bank</t>
+  </si>
+  <si>
+    <t>Vader</t>
+  </si>
+  <si>
+    <t>Vader neemt slok van bier</t>
+  </si>
+  <si>
+    <t>6 flesjes bier, één voor één naast de bank gezet</t>
+  </si>
+  <si>
+    <t>Karakters lopen over pad</t>
+  </si>
+  <si>
+    <t>Vader drukt op knop van Multitool</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Vader meet en timmert op het gras, Dochter kijkt rond</t>
+  </si>
+  <si>
+    <t>Gecreërde klimrek</t>
+  </si>
+  <si>
+    <t>Vader kijkt vol trots, pakt bier en neemt slok</t>
+  </si>
+  <si>
+    <t>Dochter, Omstander,  Vader</t>
+  </si>
+  <si>
+    <t>Vader en Dochter lopen over pad, Omstander gaat andere richting</t>
+  </si>
+  <si>
+    <t>Vader onthult zakmes</t>
+  </si>
+  <si>
+    <t>Vader pakt en neemt slok van bier</t>
+  </si>
+  <si>
+    <t>Vader in een storm</t>
+  </si>
+  <si>
+    <t>Close-up van Vader in storm, pakt paraplu, pakt bier en neemt slok</t>
+  </si>
+  <si>
+    <t>Shot</t>
+  </si>
+  <si>
+    <t>Talking Head Interview</t>
+  </si>
+  <si>
+    <t>V: "Voordat ik de K3 Multitool had…"</t>
+  </si>
+  <si>
+    <t>Dochter</t>
+  </si>
+  <si>
+    <t>Dochter probeert Multitool te openen</t>
+  </si>
+  <si>
+    <t>Dochter onthuld zakmes</t>
+  </si>
+  <si>
+    <t>Close-up van Multitool onthulling</t>
+  </si>
+  <si>
+    <t>Dochter, Host, Vader</t>
+  </si>
+  <si>
+    <t>Karakters presenteren Multitool</t>
+  </si>
+  <si>
+    <t>H: "Wacht niet langer, deze samenwerking…"</t>
+  </si>
+  <si>
+    <t>Close-up Multitool</t>
+  </si>
+  <si>
+    <t>Medium shot of Host</t>
+  </si>
+  <si>
+    <t>Close-up of Host holding Multitool</t>
+  </si>
+  <si>
+    <t>K3 Ad - Shotlist Descriptions (script v05)</t>
+  </si>
+  <si>
+    <t>Karakters worden van bank gegooid</t>
   </si>
 </sst>
 </file>
@@ -153,12 +213,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -173,8 +245,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -200,17 +274,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{82C9B312-40EC-4168-9F80-5C212B885D5D}" name="Table1" displayName="Table1" ref="A2:E28" totalsRowShown="0">
-  <autoFilter ref="A2:E28" xr:uid="{82C9B312-40EC-4168-9F80-5C212B885D5D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E28">
-    <sortCondition ref="A2:A28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{82C9B312-40EC-4168-9F80-5C212B885D5D}" name="Table1" displayName="Table1" ref="A2:F34" totalsRowShown="0">
+  <autoFilter ref="A2:F34" xr:uid="{82C9B312-40EC-4168-9F80-5C212B885D5D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F34">
+    <sortCondition ref="A2:A34"/>
   </sortState>
-  <tableColumns count="5">
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{7B0C2C5F-1D8F-437E-BABC-EC35D8B5D7D1}" name="Location"/>
-    <tableColumn id="2" xr3:uid="{91E3F369-4C4E-40EC-93EC-5B785F276766}" name="Shot Number"/>
+    <tableColumn id="2" xr3:uid="{91E3F369-4C4E-40EC-93EC-5B785F276766}" name="Shot"/>
     <tableColumn id="3" xr3:uid="{6D2F2E3E-DD7E-44A1-AA36-E4DA87A01490}" name="Plate"/>
     <tableColumn id="4" xr3:uid="{136CEAB2-B813-41F5-9EF0-D2B905010B54}" name="Characters"/>
     <tableColumn id="5" xr3:uid="{1E86E077-82BB-42CF-AF1E-EA7815E7A66B}" name="Description"/>
+    <tableColumn id="6" xr3:uid="{4D1E849C-35D7-4447-B57B-AE5317988518}" name="Dialogue"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -533,336 +608,575 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D889E87-FA00-47F7-844D-9542937C7302}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="13.61328125" customWidth="1"/>
-    <col min="3" max="3" width="6.921875" customWidth="1"/>
-    <col min="4" max="4" width="11.921875" customWidth="1"/>
-    <col min="5" max="5" width="66.53515625" customWidth="1"/>
+    <col min="1" max="1" width="11.765625" customWidth="1"/>
+    <col min="2" max="2" width="7.3828125" customWidth="1"/>
+    <col min="3" max="3" width="7.61328125" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="56" customWidth="1"/>
+    <col min="6" max="6" width="38.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1">
+        <v>15</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1">
+        <v>16</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1">
+        <v>26</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="1">
+        <v>27</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="1">
+        <v>28</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1">
+        <v>28</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19">
-        <v>7</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22">
-        <v>12</v>
-      </c>
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23">
-        <v>14</v>
-      </c>
-      <c r="E23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24">
-        <v>15</v>
-      </c>
-      <c r="E24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25">
-        <v>16</v>
-      </c>
-      <c r="E25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26">
-        <v>24</v>
-      </c>
-      <c r="E26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27">
-        <v>25</v>
-      </c>
-      <c r="E27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28">
-        <v>26</v>
-      </c>
-      <c r="E28" t="s">
-        <v>22</v>
-      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
